--- a/level-2/uri/phase-2-3/uri-phase-2-3.xlsx
+++ b/level-2/uri/phase-2-3/uri-phase-2-3.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6C366-9F93-4C52-93DB-8DEE3EC9DDB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD54A96F-46BE-4D3F-B798-5064398DEEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="uri level 2-3" sheetId="14" r:id="rId1"/>
+    <sheet name="uri 2-3" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -751,6 +764,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -778,78 +794,12 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -1372,52 +1322,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="4" t="e">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C184)</f>
         <v>#DIV/0!</v>
@@ -1447,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f>COUNTA(J4:J954)</f>
+        <f>COUNTA(J4:J834)</f>
         <v>160</v>
       </c>
     </row>
@@ -3036,7 +2986,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J79" s="23" t="s">
+      <c r="J79" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3056,7 +3006,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J80" s="23" t="s">
+      <c r="J80" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3076,7 +3026,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J81" s="23" t="s">
+      <c r="J81" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3096,7 +3046,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J82" s="23" t="s">
+      <c r="J82" s="14" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3116,7 +3066,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J83" s="23" t="s">
+      <c r="J83" s="14" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3136,7 +3086,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J84" s="23" t="s">
+      <c r="J84" s="14" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3156,7 +3106,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J85" s="23" t="s">
+      <c r="J85" s="14" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3176,7 +3126,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J86" s="23" t="s">
+      <c r="J86" s="14" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3196,7 +3146,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J87" s="23" t="s">
+      <c r="J87" s="14" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3216,7 +3166,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J88" s="23" t="s">
+      <c r="J88" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3836,7 +3786,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J119" s="23" t="s">
+      <c r="J119" s="14" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3856,7 +3806,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J120" s="23" t="s">
+      <c r="J120" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3876,7 +3826,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J121" s="23" t="s">
+      <c r="J121" s="14" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3896,7 +3846,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J122" s="23" t="s">
+      <c r="J122" s="14" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3916,7 +3866,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J123" s="23" t="s">
+      <c r="J123" s="14" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3936,7 +3886,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J124" s="23" t="s">
+      <c r="J124" s="14" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3956,7 +3906,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J125" s="23" t="s">
+      <c r="J125" s="14" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3976,7 +3926,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J126" s="23" t="s">
+      <c r="J126" s="14" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3996,7 +3946,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J127" s="23" t="s">
+      <c r="J127" s="14" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4016,7 +3966,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J128" s="23" t="s">
+      <c r="J128" s="14" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4036,7 +3986,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J129" s="23" t="s">
+      <c r="J129" s="14" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4056,7 +4006,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J130" s="23" t="s">
+      <c r="J130" s="14" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4076,7 +4026,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J131" s="23" t="s">
+      <c r="J131" s="14" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4096,7 +4046,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J132" s="23" t="s">
+      <c r="J132" s="14" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4116,7 +4066,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J133" s="23" t="s">
+      <c r="J133" s="14" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4136,7 +4086,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J134" s="23" t="s">
+      <c r="J134" s="14" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4156,7 +4106,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J135" s="23" t="s">
+      <c r="J135" s="14" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4176,7 +4126,7 @@
         <f t="shared" ref="H136:H163" si="3">SUM(C136:G136)</f>
         <v>0</v>
       </c>
-      <c r="J136" s="23" t="s">
+      <c r="J136" s="14" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4196,7 +4146,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J137" s="23" t="s">
+      <c r="J137" s="14" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4216,7 +4166,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J138" s="23" t="s">
+      <c r="J138" s="14" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4946,113 +4896,13 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1 I24:I26">
-    <cfRule type="cellIs" dxfId="32" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J164:J168">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J68">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J104:J110">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J92">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J96">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J142">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J146">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J156:J158 J160:J163">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J159">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J156:J163">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
